--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-02.xlsx
@@ -350,6 +350,9 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
+    <t xml:space="preserve">PEDI CITICOLINE  DROPS</t>
+  </si>
+  <si>
     <t>PENDULIN ANTI-DANDRUFF SHAMPOO</t>
   </si>
   <si>
@@ -375,6 +378,12 @@
   </si>
   <si>
     <t>SOLUPRED ORO 20MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 30 TAB</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -3199,7 +3208,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3219,17 +3228,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3245,13 +3254,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3271,13 +3280,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3289,7 +3298,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3297,17 +3306,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3323,17 +3332,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3349,13 +3358,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3375,17 +3384,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3401,17 +3410,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3419,7 +3428,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3427,17 +3436,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3445,7 +3454,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3459,7 +3468,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3471,7 +3480,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3479,17 +3488,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>23</v>
+        <v>45.5</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3505,17 +3514,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3537,11 +3546,11 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3557,17 +3566,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3583,17 +3592,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3609,13 +3618,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3635,13 +3644,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3661,13 +3670,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3687,17 +3696,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3713,17 +3722,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3739,17 +3748,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3757,7 +3766,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3771,11 +3780,11 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3783,7 +3792,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3791,17 +3800,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3809,7 +3818,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3817,7 +3826,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3827,7 +3836,7 @@
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3843,17 +3852,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3869,13 +3878,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3887,7 +3896,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3895,13 +3904,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3913,7 +3922,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3921,17 +3930,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>147</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3939,7 +3948,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3947,17 +3956,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3965,7 +3974,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3973,13 +3982,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3991,7 +4000,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3999,17 +4008,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4017,7 +4026,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4025,17 +4034,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4051,13 +4060,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4069,7 +4078,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4083,7 +4092,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>68.599999999999994</v>
+        <v>150</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4095,7 +4104,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4103,13 +4112,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4121,7 +4130,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4129,13 +4138,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>44.549999999999997</v>
+        <v>10</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4155,13 +4164,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>30</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4173,7 +4182,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4181,51 +4190,129 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" ht="24.75" customHeight="1">
+      <c r="A124" s="6">
+        <v>121</v>
+      </c>
+      <c t="s" r="B124" s="7">
+        <v>161</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c t="s" r="H124" s="8">
+        <v>39</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="9">
+        <v>44.549999999999997</v>
+      </c>
+      <c r="M124" s="9"/>
+      <c t="s" r="N124" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" ht="25.5" customHeight="1">
+      <c r="A125" s="6">
+        <v>122</v>
+      </c>
+      <c t="s" r="B125" s="7">
+        <v>162</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c t="s" r="H125" s="8">
+        <v>163</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9">
+        <v>30</v>
+      </c>
+      <c r="M125" s="9"/>
+      <c t="s" r="N125" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" ht="24.75" customHeight="1">
+      <c r="A126" s="6">
+        <v>123</v>
+      </c>
+      <c t="s" r="B126" s="7">
+        <v>164</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c t="s" r="H126" s="8">
+        <v>163</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="9">
+        <v>70</v>
+      </c>
+      <c r="M126" s="9"/>
+      <c t="s" r="N126" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="K124" s="10">
-        <v>6626.9099999999999</v>
-      </c>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="11">
-        <v>162</v>
-      </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c t="s" r="F125" s="12">
-        <v>163</v>
-      </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
-      <c t="s" r="I125" s="14">
-        <v>164</v>
-      </c>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
+    <row r="127" ht="26.25" customHeight="1">
+      <c r="K127" s="10">
+        <v>6784.9099999999999</v>
+      </c>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="11">
+        <v>165</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c t="s" r="F128" s="12">
+        <v>166</v>
+      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="13"/>
+      <c t="s" r="I128" s="14">
+        <v>167</v>
+      </c>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="371">
+  <mergeCells count="380">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4593,10 +4680,19 @@
     <mergeCell ref="B123:G123"/>
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
-    <mergeCell ref="K124:N124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="I125:N125"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="K127:N127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="I128:N128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
